--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H2">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I2">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J2">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>66.22817321789937</v>
+        <v>132.1550847741916</v>
       </c>
       <c r="R2">
-        <v>66.22817321789937</v>
+        <v>1189.395762967724</v>
       </c>
       <c r="S2">
-        <v>0.0006698340734055467</v>
+        <v>0.001192013238080203</v>
       </c>
       <c r="T2">
-        <v>0.0006698340734055467</v>
+        <v>0.00125494435331181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H3">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I3">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J3">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>577.6335205033917</v>
+        <v>870.325320065934</v>
       </c>
       <c r="R3">
-        <v>577.6335205033917</v>
+        <v>7832.927880593405</v>
       </c>
       <c r="S3">
-        <v>0.005842205743790642</v>
+        <v>0.007850165619640113</v>
       </c>
       <c r="T3">
-        <v>0.005842205743790642</v>
+        <v>0.008264607054864785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H4">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I4">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J4">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>471.4812184099943</v>
+        <v>730.9087495532116</v>
       </c>
       <c r="R4">
-        <v>471.4812184099943</v>
+        <v>6578.178745978904</v>
       </c>
       <c r="S4">
-        <v>0.004768577626665116</v>
+        <v>0.006592655188294519</v>
       </c>
       <c r="T4">
-        <v>0.004768577626665116</v>
+        <v>0.006940707651205922</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H5">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I5">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J5">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>520.7623574068634</v>
+        <v>752.4465115137324</v>
       </c>
       <c r="R5">
-        <v>520.7623574068634</v>
+        <v>6772.018603623592</v>
       </c>
       <c r="S5">
-        <v>0.00526700879987187</v>
+        <v>0.006786921624727352</v>
       </c>
       <c r="T5">
-        <v>0.00526700879987187</v>
+        <v>0.007145230184724118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H6">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I6">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J6">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>205.2600466034162</v>
+        <v>322.8158234270649</v>
       </c>
       <c r="R6">
-        <v>205.2600466034162</v>
+        <v>1936.894940562389</v>
       </c>
       <c r="S6">
-        <v>0.00207600733107069</v>
+        <v>0.002911736129141889</v>
       </c>
       <c r="T6">
-        <v>0.00207600733107069</v>
+        <v>0.002043638832672506</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H7">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I7">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J7">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>3349.383683509147</v>
+        <v>4885.89351815522</v>
       </c>
       <c r="R7">
-        <v>3349.383683509147</v>
+        <v>43973.04166339697</v>
       </c>
       <c r="S7">
-        <v>0.03387578438471336</v>
+        <v>0.04406981209571025</v>
       </c>
       <c r="T7">
-        <v>0.03387578438471336</v>
+        <v>0.046396432585007</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H8">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I8">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J8">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>29212.88923758377</v>
+        <v>32176.71758345347</v>
       </c>
       <c r="R8">
-        <v>29212.88923758377</v>
+        <v>289590.4582510812</v>
       </c>
       <c r="S8">
-        <v>0.2954601892698325</v>
+        <v>0.290227753120362</v>
       </c>
       <c r="T8">
-        <v>0.2954601892698325</v>
+        <v>0.3055500294102155</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H9">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I9">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J9">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>23844.40674254696</v>
+        <v>27022.3603420697</v>
       </c>
       <c r="R9">
-        <v>23844.40674254696</v>
+        <v>243201.2430786273</v>
       </c>
       <c r="S9">
-        <v>0.2411631684864629</v>
+        <v>0.2437364502997241</v>
       </c>
       <c r="T9">
-        <v>0.2411631684864629</v>
+        <v>0.2566042659832632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H10">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I10">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J10">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>26336.72133980734</v>
+        <v>27818.63096410655</v>
       </c>
       <c r="R10">
-        <v>26336.72133980734</v>
+        <v>250367.678676959</v>
       </c>
       <c r="S10">
-        <v>0.2663705259866971</v>
+        <v>0.2509186569033073</v>
       </c>
       <c r="T10">
-        <v>0.2663705259866971</v>
+        <v>0.2641656498115182</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H11">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I11">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J11">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>10380.69778412673</v>
+        <v>11934.79419982374</v>
       </c>
       <c r="R11">
-        <v>10380.69778412673</v>
+        <v>71608.76519894243</v>
       </c>
       <c r="S11">
-        <v>0.1049907425146112</v>
+        <v>0.1076495293711997</v>
       </c>
       <c r="T11">
-        <v>0.1049907425146112</v>
+        <v>0.07555518384378393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H12">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I12">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J12">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>1.822497624031509</v>
+        <v>4.843756385826222</v>
       </c>
       <c r="R12">
-        <v>1.822497624031509</v>
+        <v>43.593807472436</v>
       </c>
       <c r="S12">
-        <v>1.843280507315912E-05</v>
+        <v>4.368974333303854E-05</v>
       </c>
       <c r="T12">
-        <v>1.843280507315912E-05</v>
+        <v>4.599629848217335E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H13">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I13">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J13">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>15.895587444557</v>
+        <v>31.89921775631056</v>
       </c>
       <c r="R13">
-        <v>15.895587444557</v>
+        <v>287.092959806795</v>
       </c>
       <c r="S13">
-        <v>0.0001607685305184294</v>
+        <v>0.0002877247584903444</v>
       </c>
       <c r="T13">
-        <v>0.0001607685305184294</v>
+        <v>0.0003029148917481797</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H14">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I14">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J14">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>12.97443910313778</v>
+        <v>26.78931294360622</v>
       </c>
       <c r="R14">
-        <v>12.97443910313778</v>
+        <v>241.103816492456</v>
       </c>
       <c r="S14">
-        <v>0.0001312239334461691</v>
+        <v>0.0002416344079564933</v>
       </c>
       <c r="T14">
-        <v>0.0001312239334461691</v>
+        <v>0.0002543912484723936</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H15">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I15">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J15">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>14.33058037002518</v>
+        <v>27.57871633440977</v>
       </c>
       <c r="R15">
-        <v>14.33058037002518</v>
+        <v>248.208447009688</v>
       </c>
       <c r="S15">
-        <v>0.0001449399939197659</v>
+        <v>0.0002487546734659971</v>
       </c>
       <c r="T15">
-        <v>0.0001449399939197659</v>
+        <v>0.0002618874210900936</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H16">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I16">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J16">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N16">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O16">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P16">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q16">
-        <v>5.648441276079458</v>
+        <v>11.83186563606183</v>
       </c>
       <c r="R16">
-        <v>5.648441276079458</v>
+        <v>70.99119381637099</v>
       </c>
       <c r="S16">
-        <v>5.7128533741978E-05</v>
+        <v>0.0001067211336852493</v>
       </c>
       <c r="T16">
-        <v>5.7128533741978E-05</v>
+        <v>7.490357758835958E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H17">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I17">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J17">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N17">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O17">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P17">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q17">
-        <v>138.7016140616723</v>
+        <v>1.137238493334667</v>
       </c>
       <c r="R17">
-        <v>138.7016140616723</v>
+        <v>10.235146440012</v>
       </c>
       <c r="S17">
-        <v>0.001402833003247389</v>
+        <v>1.025767068460193E-05</v>
       </c>
       <c r="T17">
-        <v>0.001402833003247389</v>
+        <v>1.079921387828341E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H18">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I18">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J18">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N18">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P18">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q18">
-        <v>1209.73745367165</v>
+        <v>7.489439073751668</v>
       </c>
       <c r="R18">
-        <v>1209.73745367165</v>
+        <v>67.404951663765</v>
       </c>
       <c r="S18">
-        <v>0.01223532715719132</v>
+        <v>6.755328814597809E-05</v>
       </c>
       <c r="T18">
-        <v>0.01223532715719132</v>
+        <v>7.111969464615692E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H19">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I19">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J19">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N19">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O19">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P19">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q19">
-        <v>987.4227661099948</v>
+        <v>6.289713078594667</v>
       </c>
       <c r="R19">
-        <v>987.4227661099948</v>
+        <v>56.60741770735201</v>
       </c>
       <c r="S19">
-        <v>0.009986828587596802</v>
+        <v>5.673199231207483E-05</v>
       </c>
       <c r="T19">
-        <v>0.009986828587596802</v>
+        <v>5.972709960740974E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H20">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I20">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J20">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N20">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O20">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P20">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q20">
-        <v>1090.632218968888</v>
+        <v>6.475052689277334</v>
       </c>
       <c r="R20">
-        <v>1090.632218968888</v>
+        <v>58.275474203496</v>
       </c>
       <c r="S20">
-        <v>0.0110306926240541</v>
+        <v>5.84037196606809E-05</v>
       </c>
       <c r="T20">
-        <v>0.0110306926240541</v>
+        <v>6.148708408525741E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.106441</v>
+      </c>
+      <c r="H21">
+        <v>0.319323</v>
+      </c>
+      <c r="I21">
+        <v>0.0002180031293887273</v>
+      </c>
+      <c r="J21">
+        <v>0.0002207192846134107</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.0983795</v>
+      </c>
+      <c r="N21">
+        <v>52.196759</v>
+      </c>
+      <c r="O21">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P21">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q21">
+        <v>2.7779376123595</v>
+      </c>
+      <c r="R21">
+        <v>16.667625674157</v>
+      </c>
+      <c r="S21">
+        <v>2.505645858539152E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.758619239630324E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>18.02527</v>
+      </c>
+      <c r="H22">
+        <v>36.05054</v>
+      </c>
+      <c r="I22">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J22">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.68421466666667</v>
+      </c>
+      <c r="N22">
+        <v>32.052644</v>
+      </c>
+      <c r="O22">
+        <v>0.04705285980693976</v>
+      </c>
+      <c r="P22">
+        <v>0.04892736897547583</v>
+      </c>
+      <c r="Q22">
+        <v>192.5858541046267</v>
+      </c>
+      <c r="R22">
+        <v>1155.51512462776</v>
+      </c>
+      <c r="S22">
+        <v>0.001737087059131675</v>
+      </c>
+      <c r="T22">
+        <v>0.001219196524796558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>18.02527</v>
+      </c>
+      <c r="H23">
+        <v>36.05054</v>
+      </c>
+      <c r="I23">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J23">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>70.36235166666667</v>
+      </c>
+      <c r="N23">
+        <v>211.087055</v>
+      </c>
+      <c r="O23">
+        <v>0.3098730203341347</v>
+      </c>
+      <c r="P23">
+        <v>0.3222178559101571</v>
+      </c>
+      <c r="Q23">
+        <v>1268.300386626617</v>
+      </c>
+      <c r="R23">
+        <v>7609.802319759699</v>
+      </c>
+      <c r="S23">
+        <v>0.0114398235474963</v>
+      </c>
+      <c r="T23">
+        <v>0.008029184858682479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>18.02527</v>
+      </c>
+      <c r="H24">
+        <v>36.05054</v>
+      </c>
+      <c r="I24">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J24">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>59.09107466666666</v>
+      </c>
+      <c r="N24">
+        <v>177.273224</v>
+      </c>
+      <c r="O24">
+        <v>0.2602347611759026</v>
+      </c>
+      <c r="P24">
+        <v>0.2706020894912812</v>
+      </c>
+      <c r="Q24">
+        <v>1065.132575456827</v>
+      </c>
+      <c r="R24">
+        <v>6390.795452740959</v>
+      </c>
+      <c r="S24">
+        <v>0.009607289287615419</v>
+      </c>
+      <c r="T24">
+        <v>0.006742997508732251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>17.9410378961001</v>
-      </c>
-      <c r="H21">
-        <v>17.9410378961001</v>
-      </c>
-      <c r="I21">
-        <v>0.0390034619861795</v>
-      </c>
-      <c r="J21">
-        <v>0.0390034619861795</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="N21">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="O21">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="P21">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="Q21">
-        <v>429.8759634000202</v>
-      </c>
-      <c r="R21">
-        <v>429.8759634000202</v>
-      </c>
-      <c r="S21">
-        <v>0.004347780614089878</v>
-      </c>
-      <c r="T21">
-        <v>0.004347780614089878</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>18.02527</v>
+      </c>
+      <c r="H25">
+        <v>36.05054</v>
+      </c>
+      <c r="I25">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J25">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="N25">
+        <v>182.496952</v>
+      </c>
+      <c r="O25">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="P25">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="Q25">
+        <v>1096.518944659013</v>
+      </c>
+      <c r="R25">
+        <v>6579.11366795408</v>
+      </c>
+      <c r="S25">
+        <v>0.009890388251595545</v>
+      </c>
+      <c r="T25">
+        <v>0.006941694097509217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18.02527</v>
+      </c>
+      <c r="H26">
+        <v>36.05054</v>
+      </c>
+      <c r="I26">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J26">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>26.0983795</v>
+      </c>
+      <c r="N26">
+        <v>52.196759</v>
+      </c>
+      <c r="O26">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P26">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q26">
+        <v>470.430337049965</v>
+      </c>
+      <c r="R26">
+        <v>1881.72134819986</v>
+      </c>
+      <c r="S26">
+        <v>0.004243190417653912</v>
+      </c>
+      <c r="T26">
+        <v>0.001985424577717939</v>
       </c>
     </row>
   </sheetData>
